--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/63_Ordu_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/63_Ordu_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A09FDB-B031-4F26-9963-D1F2181A6145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB1B908-E44C-4B16-9BF1-7FFDF6F4B184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D70F8E9A-4F65-45BC-A23E-4162ACC21690}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E52F38F1-6822-42B9-A008-030454795D40}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BCBD41A0-0BEA-4123-80F6-A34EB995A56A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8574BAF3-B306-42A4-AAA0-190C73980528}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F8FAEE9E-B257-4DE5-9CEA-F351571BC258}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9EDE4358-E689-444B-B70A-CF4312945557}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{523EBECC-40EE-4CE4-B643-419EBE93BEFC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{CE8ACD76-CE6A-4D7B-81B9-1A0C8569046D}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{F855FDBE-8DEE-47BC-A2A9-B9EFBC194733}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{88568657-368F-4FD9-9CAE-E99365A0D9D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50D056E-ED2A-470C-97AF-C6417903F551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4340D377-EA85-43FA-9E77-1146F189DE88}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2471,18 +2471,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{211482C0-9E7F-4334-B50F-FB9EAFA93559}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{13EB8D40-4DB5-4DF6-B44C-891F0D2FF426}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{77A3255C-4F04-4945-AEF4-752066AD3276}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E60F441F-765D-42B5-A5B9-A1A33ACF3027}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DD90A49A-A959-4188-94F1-50001D3896AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04624312-D2AB-440F-A31F-FB2795AAAC11}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{027A9279-9886-471C-A1FF-495B8825A42B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D8A06AD3-9551-436F-9E4A-87EDCF5EFD26}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1249297A-4AD7-4256-8B98-8AFE907AE181}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1C2B10CD-0D5D-4293-BFC5-95C543E89276}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{66E57E8F-0E38-4CD8-9D74-0D3874B9CA30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8315A02D-3BBA-4521-87D6-280160A2B6B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A4D0650-C7A4-4F92-9EA4-9C9E8D6D1EA0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0342B902-201A-4C1E-B16D-62441D1DA69B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{72FF16DF-E228-43B2-AD41-ADC1A74FD79B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0568EA4A-59B7-4F7F-A1C2-6EA1B5C64EEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{352EB186-211A-4B75-A17C-7B6E49B5E0DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E633F257-9AB3-4400-B4BA-28B348FCCA45}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{71F9A467-C8F5-4972-8993-B8CFF8C92497}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7C13D226-6D3A-4FC4-9C69-8CDC7C970166}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1C45C525-AA48-481E-8237-633A103E6451}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{06083EA5-165C-49B8-A546-716AF7B4FD7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E4AF3A3D-4B4D-4ABA-ADE2-23923B02D786}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{32C09F79-F5F0-498D-9DBE-F67599AE4DBE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2495,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553ED31F-500F-4B05-9C35-899C8C14BCD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929A5EFC-426A-46F7-B43A-B2AF87F8B289}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3696,18 +3696,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{08606EB2-FAFD-46F8-AB6A-487821DC912D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D4BEA6F5-0CC5-425D-A7BD-85F2BFFA28A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2D2CAF8D-4AF2-4ECA-8D07-09EB18941D97}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B55C1F1-6C44-4274-BE20-34AC957BA2D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6DA9D5E3-FB34-42F0-B788-D1D78E77D01D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A973ED0A-4A98-43ED-8B47-E088D2283089}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78DA615D-E1BD-4BCC-A37C-2A37C0732A5D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C04E882E-3129-4082-8BB8-11D0BDFC7D5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0D95DB7D-941D-43B4-8492-88F4F9E0A717}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2E5C15A6-66C0-4C50-BF32-B4614914F752}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5CECC4EA-B30C-42BD-AFD0-BF5C343AEA5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ACE96872-DE27-4674-8340-0EBB30AA253A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9D8CAB4-6B7C-44E6-8154-761F3F29DAAC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F6675F6E-D9B6-4AEF-8ACB-B63F05AEA48C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3EAD3A49-D448-432F-B1B1-62348A901A5D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D418F783-3748-4238-883A-2BD28EE9701C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2BE7A416-B96C-4381-81BE-ABF30502BDEB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{910FB0FD-0FF2-4947-A906-76F1E4AB9351}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BA6D6318-F0F5-4A88-AA9D-54415801A33C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5CF4BFBD-8AD2-4D34-A626-B7DD22CDA63B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FBA29CE1-1FBF-42C9-913B-D3E8C5204F42}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{364591ED-B534-4C8D-BE3A-CD7E67818665}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{854C0619-0D73-4BA9-AB5A-08BE4C8E0B93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03E64EFB-9A44-4F42-AE34-59FBB5421B99}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3720,7 +3720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E29A00-9ABD-4448-A81B-FB99C4459D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654EFE9-ED2E-40E2-8FB9-E0604C870C9A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4921,18 +4921,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{48D68F1D-5002-4D19-AD5F-2BCEEA723A32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A8DDC623-ABF1-4E10-8757-DAA9CCE569A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3448FB9C-A662-4547-ACCD-D7419F3DA4E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AE854ECA-FF5E-414D-89BB-7253E205F423}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B47C3BC0-8069-4E4A-AFC9-62E97A07743A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4B60474A-056B-482C-9F93-F2ECF7790EE7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8D2397DA-ACFC-4D57-9597-34175E54A5F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7CB55F4E-39AE-4C20-9004-82D0FEB07ECB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B25F5FDD-7547-49CB-A946-6FA619CD8EE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{662D1968-FAD3-45EE-BABF-105B6DEAF333}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6796C951-2D50-465C-B7E5-C1E25AE430D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4E907729-3023-40E9-9104-047D3D6AD40C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2BEE056C-F115-49E1-92DD-70A888EF1A02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06E840B1-AEB9-412A-8C20-463CB982A2C4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F7F77A73-8BFC-4C9D-A6E2-CB4447BD5B28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3CD1ECE6-4691-48A2-9324-CA775637089C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF0245A7-1D48-474E-992D-1DE7F8EAC823}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E866F4C7-5192-4B90-8991-B45D239375F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9636D9C-DF62-43D1-98FA-71B7D5BFF4FF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0400712C-152C-4744-B19F-8F149ED4A2F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{124956B8-B0AE-4140-B45E-01D65BF391CE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2AD65172-CA62-49E9-92A9-16E08F5EB81A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33B4A0B5-DA1B-4B76-AE4F-4936B2A2C1DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C67C07CB-5830-47F0-9355-596D56784C62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4945,7 +4945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9640389-1F7E-45C0-9985-40EDECCB7997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD92755C-6088-4A29-BB2D-E2AA0577CCD0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6138,18 +6138,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9B27A133-C745-43BD-BFA1-161D3FDE4E5B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4F0BB02A-506B-468D-962E-BB7BA6E66B7F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1F6D8519-880D-47C0-BA3A-8A2726C659B7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8B13E64A-A089-459A-8141-46CC4AE84323}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FABAFCD3-6932-40DF-AF98-D599C93D45FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{175D13D0-5D3B-44C0-B3AC-0EECEDFB9C33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6E98C2F0-7DA2-4719-AD8F-7CF11DA5D6E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{827BB13F-1928-43EE-83C5-D52EF5FC00FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{012BC10B-738F-40C4-A37C-0E2D9B7CD152}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7355F0A-9175-4C68-A755-B45AB0CC5801}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DCA15137-937A-4B92-9388-8FF8BC5525CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7FB66E77-C1EB-4EC7-B000-CE0DD727321B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B9274D15-F1D6-4B9F-AA61-255A563D2CBF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BE0B989E-1AEE-4D48-921E-9E5686A5FCB1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{18148265-0204-4CC1-A495-BC707922E919}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{205D4038-418B-41CB-AF74-8859C70F41E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8F475988-8D7A-457D-B4F4-6F1B62ECEBD4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99B0A5EA-AF56-4C22-97F5-C1F335226526}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F0B879B6-D1FF-4330-BFAE-55C0F75CC693}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B949F5D0-C42D-4348-A285-FF73F0D94BA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCDA6AFB-0546-4041-B0D5-4D773EDDBC1F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A4F1DD4B-E22B-4210-9C52-C713BECC6234}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5AB96273-D2BB-4C9A-BDBD-C1BC9EC0D4D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BCB28A81-97E2-4B98-ABDB-A79A62C3BB76}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6162,7 +6162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDADB039-583B-41FC-B70E-3A3185F5EF36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD82C23-034F-4AEF-B7A2-3A67148FD183}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7399,18 +7399,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A68D1CE8-9308-4BAE-B222-026DAA7AF3E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9E63528-8AAB-46B3-9D6A-E209BFD5E3B5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{91389D30-4325-4069-9389-5F25DE74C6E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BEA8AE84-B18C-4947-B9CC-A45047BBEE7A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C7016957-31AF-467E-8F71-8A0B393E0C57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5906AABF-3371-4C17-A286-22FEB1C90EB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E2B11CAB-1C7B-4DCC-8813-3A8D6FED515B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEF5EC94-7534-4FFB-9B4D-950D322806CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA121C2D-EF2E-4432-8024-1AB8648BF82F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{52270227-6D1A-4C48-B19F-5A30521F3352}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FDCB3CB8-29CD-4F78-97E2-E2845818FB5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8227AA8A-872E-40F4-BFD2-8BE5737D6B67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9FD8C1E1-3223-42F7-A97D-AF6C951A19BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C0B1BD02-F55B-447F-AD3F-71B9A616CC71}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A224F00E-33D4-432A-B386-F66A033503E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{44E3C9E0-F5CD-4F25-92A1-FBA41F94468F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AE080F7B-925E-4109-B8E2-267BB072A99D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{29DBF6E0-D96A-4002-BB67-2E592B5AF6C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{34B33F58-0A50-49CC-B618-7D1DB200E17C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{01B3DE2F-7A5B-4F91-8ED1-D68A4B65D009}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DF2E08D0-4581-49A8-8904-C27D4A992DAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EC746C0D-9347-44B6-84A0-A6A0A5A5F1C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A583136D-BB43-46F3-BC6C-98CAECD2BE24}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1F91B751-4C5C-4D9F-B6F0-DCDCFC6944C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7423,7 +7423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0541B9-9366-4B97-9638-50CDEC37F275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C19504C-B0C4-4F98-88ED-C1903C37E10F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8654,18 +8654,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8490AB9-C888-4B9D-9D59-7DBC5D501705}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{987904B3-447E-471B-BFC1-CB8E260E7C7C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EB6D1FB7-F40C-4830-A0D3-A4CAF797A06F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1ED30DA-E7D7-4EAB-A4B4-22714145CD8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8669DC85-D9E9-4AFF-98FF-1014ED687FDE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E1E7769C-D56D-438D-B8A4-C4EC383EA79F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{16B28898-3C65-4AAA-A1DD-F118B3EF2D85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F094103F-AF0E-49A3-80F3-533E8D17FC07}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{25FAD393-0BEB-460E-82EB-C5DDE31EE7CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29502094-EC11-40CD-B38E-8630CCA09770}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9080E90-8FBC-46D2-89C9-5D3E6EBCC60C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{921F0903-7C90-42BE-B27C-CD508480EF72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1AC65AEA-1DA5-47C9-AE92-CAE66DA99382}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{32CF94BE-6FAA-4904-997A-E58FE1E1E450}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{940EE9AB-B003-47D8-9F5B-1665045409AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{20F029DE-E683-44CA-A72C-B8F4B73078A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DBDE386B-F541-4DB0-BA05-510F23D34A9C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BA44924E-61B0-426C-98A0-769E0299D19D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ABBABFBB-0E89-4CFA-8278-A25970CC13CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA2CC2E4-4D93-4A82-889A-52669AF606BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5292BA9F-3D61-40F5-BF0E-45F31E3A2AA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0700F851-1FFF-4EB7-96C5-9CD187AA543E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6B8D530B-ED1F-49FD-B88E-78365E68F966}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F6E83C54-8C0B-484F-9ACA-F0C4F451C1A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8678,7 +8678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF2FA22-FEC0-4701-9B9B-DD6481569995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D947613-5A34-4E84-8606-AB81176FA058}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9903,18 +9903,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D43BD734-51A4-4A39-AEED-8ADB00AD0229}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7BD90EC-E3F5-4EAE-92B6-C07E96B2E400}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DD10893D-72C1-4AEE-B57D-C8999AA02ACE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3CC8C12E-0145-4159-9ED0-FA78C711D8B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1B06C524-7A85-4A52-9F8A-A6DF7E9983B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C003259E-FFDD-4E26-AB5C-939A9F2DBA78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A2999B53-E565-4B78-97CC-4C47B25F892A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A81EB693-66F9-4822-B3DB-7F0FADD2C0AC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBD85200-024E-4F5A-B50A-78A1B87C0116}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7572D50-3811-40A5-B6C7-EABAB7B4DC82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{004D1059-11B2-43C4-9DF3-1105B2C68E90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD1BCFD6-1BD5-4719-811E-781390BC67BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65098B40-3D7C-496F-B64F-2C2991DDA960}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FE574B50-E800-4CC6-BD90-D911DA54DA90}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07C4CDE2-215A-458F-AF9F-2627168C719D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{021771D3-9EE2-43CE-9852-30386BFD9E14}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6F71A1A9-9C54-44CD-98EE-06F377EAD094}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{46F87AF3-231A-4D57-BACE-25D4E61A1739}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12DD7140-2252-460A-A9F3-3B38BD365A60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{26EBC4A4-671C-4BBA-9501-32208EC3A266}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{263092EE-E12F-4961-A9D7-FD601AFEE77C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{17C25331-22C8-48E7-9D7D-82B870B6895D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31F5FB40-88B8-4B10-9979-54AEA790A65F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B7018184-4E3A-42D0-803D-BE5243CA4F0D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9927,7 +9927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267B3611-DF15-4492-912C-209CF7DD590D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA072DF9-937B-4398-BACD-0E952F0D9CF4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11142,18 +11142,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E01E655B-5C5B-4DBB-A0DA-BDBF97636C55}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4620A805-2F04-4A02-A7D9-AAA2573F939A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D51DA136-EB09-4339-BFEE-00487BAB7C27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C7E2B0E-1380-494D-BFD1-586EF74D2296}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FC68984D-EB93-4DCF-9BD5-3F2226116647}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03E8CB5B-8FFA-4593-8E29-8FEFFE05FF23}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A34579A6-C818-4E35-B618-C4E85111D978}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A8859ACE-CE7E-48DC-829C-F5B6C913004C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A5A80D3-7EEA-4251-A77D-4DB21B1E46DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{930FA197-752B-4B01-B493-4CA8BC41B4AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2CDD6453-2DA3-4B72-97B6-CD5839E1DE30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03355D7D-2F26-4C9C-AF0C-5F4BBF8EF153}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A08D6DE-317F-402B-8B40-8503B7BABC1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{82D3CCA4-F2A6-4378-9BBA-3C592F03C07E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BFAC939A-C2F4-4A81-9D75-D2A7DCFFA51A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3225AB3E-CE57-4FC5-A8B8-1B83C51F7019}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F48C6EE6-F083-442D-8913-1F8CAC325791}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6174C6E1-40AA-44D9-9684-8A84A08B1B39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{931FCD4E-02FC-4161-A4E4-D50DB76F6C7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4B21932B-BB97-4869-8E2E-E50C302BD83F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6AC853E4-5020-4737-AD5A-3CC0A52B2D79}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{60513D68-94E0-4724-9E7B-2A8076311911}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4F1B4E55-C96E-4311-B821-6AEC55ACA8AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F31DE664-C4B6-49EF-8D1E-B26BC72EA758}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11166,7 +11166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81272209-F641-4017-B2E7-94A8327F8C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C129DF2-3DE0-4289-BA7A-6DD78FA2D402}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12381,18 +12381,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EB90004E-1F8E-45D1-9CA5-A96585795F92}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D688344E-5914-40DE-9652-5E445D982046}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0DE3D33A-11C7-4585-9968-325EA14231D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FEC5DA91-4BE7-4E89-BBD7-8967664E430A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{686311E3-AE19-4D0B-B242-A347E5DE5803}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4BECFC2-477F-4623-B6A5-F1914071B818}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26B2D3F0-AB28-4305-A196-82E395918653}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{19CAE6A6-A472-43C6-BD51-BAD9C026EB35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DFBBD446-6C83-4CD5-B758-10E33B9D1C74}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D712075A-4A04-4E24-BEE9-4E3F58BDAA21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{265C767E-F771-4323-91B5-4293D45C7F34}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF08B849-71F8-4951-8CCA-F99413C96518}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FD5651CF-2C4E-465D-A539-4F29F09FDAD7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C80EB254-BFE1-41AE-AD6E-69FA8B79A34C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C35C505F-E7BD-4855-A55C-71803D5BB35E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B90471DA-58BF-4BC0-B605-3CC1D1747079}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C422B28F-D972-473C-976A-EC0721969047}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E0B78AF1-9D5D-43A8-AA61-7F95C554D2F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{307B3F6D-C7E4-431E-87F3-8CAE3F4977E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{41A6B540-79FA-4EE2-BF1F-F0EF680D8E51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E51FCF81-A7B5-47BE-AC8B-91D0BF860EB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49569875-7A78-4E30-8DA2-3E1C55FF058E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F929688A-DAAC-433E-BBBD-969EB00D57CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C4F8603-75B2-490A-8EB3-2B387B689D23}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12405,7 +12405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B9B7FF-F585-400E-A518-ECC3BFD51A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0483B7C-65C4-4C88-9C10-A60A34EB19F9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13620,18 +13620,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{57D68996-06DB-4FC8-8397-FD293A71506F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8866A4F8-431C-4B0A-85E8-525BE24467A2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5DD460F1-3884-4A0A-8E6C-4310F4838F5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{91F0B3EF-604C-4F54-84BA-8E953930FFA2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5E4FEE7E-30F2-4248-9075-C76CFEBEE1ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42423255-FA19-401B-A488-66640E17DC7B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6F867F66-9DED-4F50-9833-1F1FBE6EB8AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{24E86C45-6B68-4500-8127-B3A334480472}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{59A79F93-9302-493F-BB6F-10EE41EC2054}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FEBFAA06-F602-4E38-BA3A-256754356047}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BEA9790E-2D97-48F2-A6C5-BBE70607B421}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B834449E-D046-4C86-A984-280380F1061A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9C7F4A36-25D9-4030-843B-511665B6D3AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{59D0E707-B095-4433-8E2B-0CB5952E2521}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D5A78265-82C0-4B54-99D5-14118E567810}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D4A119C2-9DD9-4EF0-9B35-133AEC342305}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8908F250-6C47-4A07-AF5D-84D77AC169B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5DD36004-066A-41F7-B061-42ABFCF402B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A654FDEC-99BA-4508-909A-EE191E310467}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3C4DC333-CEBC-48B5-9936-5FBFF22A6B65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8249528D-FD4A-48BF-905A-AF86BD9DF9CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0CC5A2EA-60AE-4CD2-974B-EB6C671EC8DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{32C2B583-71A8-4D90-A1D2-81350BCE4893}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ABDE85E9-6846-4E5C-9714-A77E175A1BA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13644,7 +13644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C55953-80FB-4E54-91B6-14291157D987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF477559-B8BD-4B64-AF29-92E3C35DDEA0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14859,18 +14859,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C90C093E-9841-4AE7-89D9-F9CBAD051155}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8E57FC7A-DA64-487B-B0E7-E1856F185BB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0E05EDAA-777E-443D-A3CD-168AADB5E823}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2067AE3F-6B62-4762-9174-4F855E46AD45}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7F70BA3B-2CE5-45FC-AF94-B7CC18A5BA2F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5B152592-BC4D-427D-BA4D-35BB8C79695D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7F90DFBA-1823-4C8F-B577-04CDE7650AB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{60A010EB-AF49-4909-A5D7-72B35694B202}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E8388BB6-F26C-4C73-B59B-2E98154D75F9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{93754A19-57E3-4FBC-9E2E-C54BE198F383}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DE98195C-BE82-421A-BC93-5EC6791D6207}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DD311CF1-8C97-4013-B67A-A8083E69D748}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{03616E3D-CAE5-438A-8DBC-2993706F4BA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4AFE1E5F-34AA-488F-8750-65101873CFFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7121E841-D896-4DD5-ADD2-35353D7BCA26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6CBCBCBB-031B-41D4-849F-EF6FADB456C2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4CB2F8DD-7AF9-489E-8945-0FD973845B99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F0E62EDD-B5D1-453B-87E2-0BE8D1EE4514}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29DE220A-73C1-47AD-8D06-4A96C7E99F61}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{07863B07-A3AD-4978-9446-498E45D09A73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3AA1EA2B-E44E-4B98-B586-4F0E6E9A9292}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5152E25E-8EFD-4F24-8621-CDD7AE999310}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3F9D306D-061D-4C92-836C-36FE76D2B1A4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3D3B0333-AD42-4921-8538-10F6DAA9EE25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14883,7 +14883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF259E1-9E89-4FF1-AE4A-FD0FBA54F32B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F7D78D-94E2-4696-A4CD-89A4DB3020C3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16088,18 +16088,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{13E9ACDE-66F1-49F3-8DD0-2CE07ED8E643}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EBBF58DD-EC7F-4FC7-AAC2-E1D2718A8FB9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{82293107-E28F-4795-A42A-C995A92F2424}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{02A7A566-8EDA-46F2-A4FC-F286C0B330B4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{97214576-3D07-439A-B7FF-B4FE9FB66D5B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0D777DEB-CA3E-460F-B6BB-09EDDD9B2181}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C02FA36-9A30-4A15-840E-036728A63E8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6C7AD649-6557-4D26-BA1A-93F9BD134F0E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{69BDEAE3-15B8-4D3A-A0CC-072FE81177B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DA8AE9D3-E4F5-4EB8-80D0-1E2049F37DDA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F4AD31FC-7461-4930-ACF5-954C45900D68}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{535B3A69-464B-492E-8469-62BCF1E72DD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FD82FF66-E166-4BDD-9212-54B7B9D76F4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{23EB9345-1425-4D64-94F3-C6F8B3303479}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{68699630-05F4-418F-A72B-16EBD50A306C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{235E72BF-64C0-4A72-A1C0-DAC1745C0911}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2AEF854D-B139-4416-8729-B51AE3AD7BB2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{34D0B16D-A9AF-454E-81B1-DA5B6792E592}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC2A183A-DF7D-4C76-90A9-7CC8F83B3760}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{61C86716-AE7C-4346-B59C-0EC6A1D3281A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{294A14EE-CCB2-4D87-B5D6-014CBFC0B049}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{961D3695-5E2B-4AB7-9A60-32E243A94724}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7D3C8903-F6E2-4D4B-9E85-3FC5A8FCE7DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A5841948-B25A-4065-A08D-40CBE05C6007}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
